--- a/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChinhSachGiaHeader" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Mã chính sách giá</t>
   </si>
@@ -145,13 +145,25 @@
   </si>
   <si>
     <t>Tương tự cho chính sách giá quá khứ?</t>
+  </si>
+  <si>
+    <t>Thoai:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không ovelap thoi gian dc </t>
+  </si>
+  <si>
+    <t>co the keo dai thoi gian neu chua co chinh sach gia khac ovelap nếu có không cho sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">không cho sua </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +181,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -323,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -334,7 +353,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -349,23 +382,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,64 +709,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
@@ -778,37 +798,37 @@
       <c r="K6" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="5"/>
@@ -820,7 +840,7 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
@@ -1002,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:R8"/>
     </sheetView>
   </sheetViews>
@@ -1099,75 +1119,75 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="5"/>
@@ -1298,65 +1318,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -1378,5 +1421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Mã chính sách giá</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">không cho sua </t>
+  </si>
+  <si>
+    <t>Hiện tại thông tin giá hiển thị ở 3 chỗ:khám bệnh,nhập thuốc và chính sách giá.Khám bệnh và nhập thuốc lại cho sửa giá.Vậy thì vai trò chính sách giá không rõ ràng ?</t>
+  </si>
+  <si>
+    <t>Khám bệnh lấy thông tin giá từ chính sách giá vậy nhập kho lấy thông tin giá trên cơ sở nào?</t>
   </si>
 </sst>
 </file>
@@ -364,6 +370,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,7 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,64 +715,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
@@ -1321,7 +1327,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,49 +1361,59 @@
       <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">

--- a/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ChinhSachGiaHeader" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Mã chính sách giá</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Ví dụ : thay đổi ngày hiệu lực,thời gia kết thúc,ngày ngưng hoạt dộng?</t>
   </si>
   <si>
-    <t>Thông tin giá như UI</t>
-  </si>
-  <si>
     <t>Cần tạo thêm table ThuocChinhSachGia với các thông tin sau</t>
   </si>
   <si>
@@ -159,10 +156,43 @@
     <t xml:space="preserve">không cho sua </t>
   </si>
   <si>
-    <t>Hiện tại thông tin giá hiển thị ở 3 chỗ:khám bệnh,nhập thuốc và chính sách giá.Khám bệnh và nhập thuốc lại cho sửa giá.Vậy thì vai trò chính sách giá không rõ ràng ?</t>
-  </si>
-  <si>
     <t>Khám bệnh lấy thông tin giá từ chính sách giá vậy nhập kho lấy thông tin giá trên cơ sở nào?</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu*</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc*</t>
+  </si>
+  <si>
+    <t>Khi bấm nút ngưng hoạt dộng thi1i1 set thời gian kết thúc = ngày ngung hoạt động</t>
+  </si>
+  <si>
+    <t>Nế chính sách ngưng hoạt dộng thì vẫn show detail nhưng disable</t>
+  </si>
+  <si>
+    <t>Hiện tại thông tin giá hiển thị ở 3 chỗ:khám bệnh,nhập kho,nhập thuốc và chính sách giá.Khám bệnh và nhập thuốc lại cho sửa giá.Vậy thì vai trò chính sách giá không rõ ràng ?</t>
+  </si>
+  <si>
+    <t>Giá thực mua = Giá thời điểm nhập bên nhập kho</t>
+  </si>
+  <si>
+    <t>Giá mua = giá trước thuế bên nhập kho</t>
+  </si>
+  <si>
+    <t>Giá mua VAT  = giá sau  thuế bên nhập kho</t>
+  </si>
+  <si>
+    <t>Set giá ban = giá mua … trong khi nhập kho luôn</t>
+  </si>
+  <si>
+    <t>Màn hình nhập kho</t>
+  </si>
+  <si>
+    <t>Màn hình khám bệnh load giá sau thuế</t>
+  </si>
+  <si>
+    <t>6 thông tin giá</t>
   </si>
 </sst>
 </file>
@@ -348,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -392,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +755,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="21" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="18" t="s">
@@ -745,7 +776,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="23" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="18" t="s">
@@ -872,7 +903,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1026,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R15"/>
+  <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:R8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,13 +1188,13 @@
       <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1317,17 +1350,41 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="9"/>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1401,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1362,10 +1419,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="M6" s="17"/>
     </row>
@@ -1382,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -1397,42 +1454,62 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChinhSachGiaHeader" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Mã chính sách giá</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>6 thông tin giá</t>
+  </si>
+  <si>
+    <t>Ngày ngưng hoạt động*</t>
   </si>
 </sst>
 </file>
@@ -401,6 +404,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -746,64 +749,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
@@ -903,9 +906,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1188,13 +1189,13 @@
       <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1383,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,6 +1478,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>

--- a/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/ChinhSachGia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChinhSachGiaHeader" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Mã chính sách giá</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Ngày ngưng hoạt động*</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1090,7 @@
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1097,7 +1109,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1132,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1139,7 +1151,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1158,7 +1170,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N6" s="13" t="s">
         <v>16</v>
       </c>
@@ -1169,8 +1181,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1212,10 +1226,11 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="14" t="s">
         <v>29</v>
@@ -1237,7 +1252,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1256,7 +1271,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1275,7 +1290,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1294,7 +1309,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1313,7 +1328,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1332,7 +1347,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1351,27 +1366,39 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1382,40 +1409,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
@@ -1426,16 +1462,22 @@
         <v>43</v>
       </c>
       <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
@@ -1445,7 +1487,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1495,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
@@ -1462,60 +1504,78 @@
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>57</v>
+      </c>
+      <c r="T23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
